--- a/Test/CalculFiltre.xlsx
+++ b/Test/CalculFiltre.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24780" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +66,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,15 +104,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,14 +408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -415,7 +440,7 @@
         <v>6</v>
       </c>
       <c r="I1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -426,18 +451,18 @@
       </c>
       <c r="L1">
         <f>I1*K1</f>
-        <v>1.2000000000000002E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
       <c r="N1">
         <f>J5/(2*PI()*(N2+0.001))</f>
-        <v>1.847334145053778E-4</v>
+        <v>2.5862678511059775E-3</v>
       </c>
       <c r="O1">
-        <f>I5/(2*PI()*(N2+0.001))</f>
-        <v>2.5862678030752892E-3</v>
+        <f>I5/(2*PI()*(N2+L3))</f>
+        <v>2.586267851105978E-3</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -459,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -469,12 +494,12 @@
         <v>1000</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L3" si="3">I2*K2</f>
-        <v>4200</v>
+        <f>K2*I2</f>
+        <v>10000</v>
       </c>
       <c r="N2">
-        <f>(0.001*J5 - L3*I5)/(J5-I5)</f>
-        <v>107692.30761538462</v>
+        <f>(L3*J5 - 0.001*I5)/(I5-J5)</f>
+        <v>7692.3066153846157</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -506,7 +531,7 @@
         <v>1000</v>
       </c>
       <c r="L3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L2:L3" si="3">I3*K3</f>
         <v>100000</v>
       </c>
     </row>
@@ -536,12 +561,12 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f>1/(2*PI()*(L2+0.0000000001)*L1)</f>
-        <v>3157.836172458165</v>
+        <f>1/(2*PI()*(L2+0.001)*L1)</f>
+        <v>1591.5492717640261</v>
       </c>
       <c r="J4">
         <f>1/(2*PI()*(L2+L3)*L1)</f>
-        <v>127.28322384188687</v>
+        <v>144.68631190172303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -610,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
@@ -620,19 +645,19 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="L8">
-        <f>I8*K8</f>
-        <v>1E-8</v>
+        <f>K8*I8</f>
+        <v>2.2000000000000002E-8</v>
       </c>
       <c r="M8" t="s">
         <v>8</v>
       </c>
       <c r="N8">
         <f>J12/(2*PI()*(N9+0.001))</f>
-        <v>9.4919998681910513E-4</v>
+        <v>1.5820001501534411E-2</v>
       </c>
       <c r="O8">
-        <f>I12/(2*PI()*(N9+0.001))</f>
-        <v>0.15819999780318419</v>
+        <f>I12/(2*PI()*(N9+L10))</f>
+        <v>1.5820001501534411E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -664,12 +689,12 @@
         <v>1000</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L10" si="7">I9*K9</f>
-        <v>1000</v>
+        <f>N9</f>
+        <v>603.62072434607649</v>
       </c>
       <c r="N9">
-        <f>(0.001*J12 - L10*I12)/(J12-I12)</f>
-        <v>10060.362167002011</v>
+        <f>(L10*J12 - 0.001*I12)/(I12-J12)</f>
+        <v>603.62072434607649</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -692,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
         <v>1</v>
@@ -702,8 +727,8 @@
         <v>1000</v>
       </c>
       <c r="L10">
-        <f t="shared" si="7"/>
-        <v>10000</v>
+        <f t="shared" ref="L9:L10" si="7">I10*K10</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -732,12 +757,12 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <f>1/(2*PI()*L9*L8)</f>
-        <v>15915.494309189537</v>
+        <f>1/(2*PI()*(L9+0.001)*L8)</f>
+        <v>11984.849622374553</v>
       </c>
       <c r="J11">
         <f>1/(2*PI()*(L9+L10)*L8)</f>
-        <v>1446.8631190172305</v>
+        <v>71.909097734247311</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -789,30 +814,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Test/CalculFiltre.xlsx
+++ b/Test/CalculFiltre.xlsx
@@ -531,7 +531,7 @@
         <v>1000</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L2:L3" si="3">I3*K3</f>
+        <f t="shared" ref="L3" si="3">I3*K3</f>
         <v>100000</v>
       </c>
     </row>
@@ -727,7 +727,7 @@
         <v>1000</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L9:L10" si="7">I10*K10</f>
+        <f t="shared" ref="L10" si="7">I10*K10</f>
         <v>100000</v>
       </c>
     </row>
@@ -814,7 +814,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Test/CalculFiltre.xlsx
+++ b/Test/CalculFiltre.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +115,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,14 +408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -558,7 +558,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <f>1/(2*PI()*(L2+0.001)*L1)</f>
@@ -823,12 +823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -840,12 +840,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
